--- a/0_Data/internal/BDA/Emergence/emergence_raw.xlsx
+++ b/0_Data/internal/BDA/Emergence/emergence_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7903b6b250c64c/University of Montana/Raw Data/0_Data/internal/Emergence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7903b6b250c64c/University of Montana/Raw Data/colman_macros/0_Data/internal/BDA/Emergence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_DFABD63717851530606E5E3B5231EBC2AE072FD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72C186F-E835-403A-9E6C-D66107CEBAED}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_DFABD63717851530606E5E3B5231EBC2AE072FD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A07A6F8-B37B-4EB0-8FE4-441A3BE5D547}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -166,9 +166,6 @@
     <t>philopotmidae</t>
   </si>
   <si>
-    <t>diptera (nematocera)</t>
-  </si>
-  <si>
     <t>bda</t>
   </si>
   <si>
@@ -244,6 +241,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,12 +544,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97257BE9-BEAD-44B3-8A38-CAA00908EBA4}">
-  <dimension ref="A1:AP172"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="AQ1" sqref="AQ1:AQ1048576"/>
+      <selection pane="bottomLeft" activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +557,7 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -642,49 +643,46 @@
         <v>13</v>
       </c>
       <c r="AC1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AD1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AF1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AH1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AJ1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AK1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AL1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="AM1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AN1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44354</v>
       </c>
@@ -699,17 +697,16 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <f>SUM(I2,J2,K2,L2,M2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -727,7 +724,6 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUM(O2,P2,Q2,R2,S2,T2,U2,V2)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -755,7 +751,6 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUM(X2,Y2,Z2,AA2)</f>
         <v>0</v>
       </c>
       <c r="X2">
@@ -774,32 +769,31 @@
         <v>2</v>
       </c>
       <c r="AC2">
-        <f>SUM(AD2,AE2,AF2,AG2,AH2,AI2)</f>
-        <v>6204</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="AF2">
-        <v>6200</v>
+        <v>2</v>
       </c>
       <c r="AG2">
         <v>2</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -808,16 +802,13 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44354</v>
       </c>
@@ -832,17 +823,16 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <f>SUM(I3,J3,K3,L3,M3)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -860,8 +850,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUM(O3,P3,Q3,R3,S3,T3,U3,V3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -888,8 +877,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="1">SUM(X3,Y3,Z3,AA3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -907,32 +895,31 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC66" si="2">SUM(AD3,AE3,AF3,AG3,AH3,AI3)</f>
-        <v>3892</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="AF3">
-        <v>3890</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -946,11 +933,8 @@
       <c r="AO3">
         <v>0</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44354</v>
       </c>
@@ -965,17 +949,16 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="3">SUM(I4,J4,K4,L4,M4)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -993,8 +976,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N67" si="4">SUM(O4,P4,Q4,R4,S4,T4,U4,V4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1021,8 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1040,38 +1021,37 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="2"/>
-        <v>4590</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>4585</v>
       </c>
       <c r="AF4">
-        <v>4585</v>
+        <v>5</v>
       </c>
       <c r="AG4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1079,11 +1059,8 @@
       <c r="AO4">
         <v>0</v>
       </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44354</v>
       </c>
@@ -1098,16 +1075,15 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5">
@@ -1126,7 +1102,6 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5">
@@ -1154,7 +1129,6 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5">
@@ -1173,20 +1147,19 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="AF5">
-        <v>723</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1212,11 +1185,8 @@
       <c r="AO5">
         <v>0</v>
       </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44354</v>
       </c>
@@ -1231,16 +1201,15 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
@@ -1259,7 +1228,6 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6">
@@ -1287,7 +1255,6 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X6">
@@ -1306,17 +1273,16 @@
         <v>1</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>336</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1331,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1345,11 +1311,8 @@
       <c r="AO6">
         <v>0</v>
       </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44354</v>
       </c>
@@ -1364,16 +1327,15 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
@@ -1392,7 +1354,6 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7">
@@ -1420,7 +1381,6 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X7">
@@ -1439,20 +1399,19 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>4645</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>4640</v>
       </c>
       <c r="AF7">
-        <v>4640</v>
+        <v>3</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1478,11 +1437,8 @@
       <c r="AO7">
         <v>0</v>
       </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44354</v>
       </c>
@@ -1497,17 +1453,16 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1525,76 +1480,73 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>3</v>
       </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>273</v>
+      </c>
+      <c r="AF8">
         <v>3</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>273</v>
-      </c>
       <c r="AG8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1611,11 +1563,8 @@
       <c r="AO8">
         <v>0</v>
       </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44354</v>
       </c>
@@ -1630,16 +1579,15 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
@@ -1658,7 +1606,6 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9">
@@ -1686,8 +1633,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1705,20 +1651,19 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
-        <v>2367</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="AF9">
-        <v>2365</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1744,11 +1689,8 @@
       <c r="AO9">
         <v>0</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44354</v>
       </c>
@@ -1763,16 +1705,15 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
@@ -1791,8 +1732,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1819,7 +1759,6 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X10">
@@ -1838,50 +1777,46 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AF10">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44354</v>
       </c>
@@ -1896,16 +1831,15 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
@@ -1924,7 +1858,6 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11">
@@ -1952,8 +1885,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1971,20 +1903,19 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AF11">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1999,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2010,11 +1941,8 @@
       <c r="AO11">
         <v>0</v>
       </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44354</v>
       </c>
@@ -2029,16 +1957,15 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
@@ -2057,7 +1984,6 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12">
@@ -2085,7 +2011,6 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X12">
@@ -2104,29 +2029,28 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="AF12">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -2143,11 +2067,8 @@
       <c r="AO12">
         <v>0</v>
       </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44354</v>
       </c>
@@ -2162,16 +2083,15 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
@@ -2190,7 +2110,6 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13">
@@ -2218,7 +2137,6 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13">
@@ -2237,17 +2155,16 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="AF13">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2259,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2276,11 +2193,8 @@
       <c r="AO13">
         <v>0</v>
       </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44354</v>
       </c>
@@ -2295,16 +2209,15 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14">
@@ -2323,7 +2236,6 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14">
@@ -2351,7 +2263,6 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X14">
@@ -2370,26 +2281,25 @@
         <v>5</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AF14">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="AG14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -2409,11 +2319,8 @@
       <c r="AO14">
         <v>0</v>
       </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44354</v>
       </c>
@@ -2428,16 +2335,15 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15">
@@ -2456,7 +2362,6 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15">
@@ -2484,7 +2389,6 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15">
@@ -2503,20 +2407,19 @@
         <v>2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AF15">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2531,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -2542,11 +2445,8 @@
       <c r="AO15">
         <v>0</v>
       </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44354</v>
       </c>
@@ -2561,16 +2461,15 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16">
@@ -2589,7 +2488,6 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16">
@@ -2617,7 +2515,6 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16">
@@ -2636,29 +2533,28 @@
         <v>7</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF16">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AG16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -2675,11 +2571,8 @@
       <c r="AO16">
         <v>0</v>
       </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44354</v>
       </c>
@@ -2694,16 +2587,15 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17">
@@ -2722,7 +2614,6 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17">
@@ -2750,7 +2641,6 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X17">
@@ -2769,23 +2659,22 @@
         <v>4</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AF17">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2808,11 +2697,8 @@
       <c r="AO17">
         <v>0</v>
       </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44354</v>
       </c>
@@ -2827,16 +2713,15 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18">
@@ -2855,7 +2740,6 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O18">
@@ -2883,7 +2767,6 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X18">
@@ -2902,17 +2785,16 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>8</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
       <c r="AF18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -2921,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -2941,11 +2823,8 @@
       <c r="AO18">
         <v>0</v>
       </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44354</v>
       </c>
@@ -2960,16 +2839,15 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19">
@@ -2988,8 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3016,7 +2893,6 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X19">
@@ -3035,29 +2911,28 @@
         <v>2</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="AD19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="AF19">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="AG19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AH19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -3072,13 +2947,10 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44355</v>
       </c>
@@ -3093,17 +2965,16 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3121,7 +2992,6 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20">
@@ -3149,7 +3019,6 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X20">
@@ -3168,20 +3037,19 @@
         <v>4</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="2"/>
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AF20">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3190,28 +3058,25 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>1</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44355</v>
       </c>
@@ -3226,17 +3091,16 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3254,7 +3118,6 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21">
@@ -3282,7 +3145,6 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X21">
@@ -3301,23 +3163,22 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="2"/>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AF21">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3329,22 +3190,19 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44355</v>
       </c>
@@ -3359,17 +3217,16 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
         <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3387,8 +3244,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3415,7 +3271,6 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X22">
@@ -3434,17 +3289,16 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
         <v>234</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
       <c r="AF22">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -3453,19 +3307,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -3473,11 +3327,8 @@
       <c r="AO22">
         <v>0</v>
       </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44355</v>
       </c>
@@ -3492,16 +3343,15 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23">
@@ -3520,7 +3370,6 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23">
@@ -3548,7 +3397,6 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X23">
@@ -3567,17 +3415,16 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>144</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
       <c r="AF23">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -3589,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3606,11 +3453,8 @@
       <c r="AO23">
         <v>0</v>
       </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44355</v>
       </c>
@@ -3625,17 +3469,16 @@
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3653,7 +3496,6 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O24">
@@ -3681,7 +3523,6 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X24">
@@ -3700,50 +3541,46 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AF24">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
         <v>1</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44355</v>
       </c>
@@ -3758,16 +3595,15 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25">
@@ -3786,8 +3622,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3814,7 +3649,6 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X25">
@@ -3833,29 +3667,28 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="2"/>
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AF25">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -3872,11 +3705,8 @@
       <c r="AO25">
         <v>0</v>
       </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44355</v>
       </c>
@@ -3891,17 +3721,16 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -3919,7 +3748,6 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26">
@@ -3947,7 +3775,6 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X26">
@@ -3966,17 +3793,16 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="2"/>
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="AF26">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -3988,28 +3814,25 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44355</v>
       </c>
@@ -4024,17 +3847,16 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -4052,7 +3874,6 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27">
@@ -4080,7 +3901,6 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X27">
@@ -4099,17 +3919,16 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>68</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
       <c r="AF27">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -4121,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -4138,11 +3957,8 @@
       <c r="AO27">
         <v>0</v>
       </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44355</v>
       </c>
@@ -4157,17 +3973,16 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -4185,7 +4000,6 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28">
@@ -4213,7 +4027,6 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X28">
@@ -4232,17 +4045,16 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <v>124</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
       <c r="AF28">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -4251,19 +4063,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28">
         <v>3</v>
       </c>
       <c r="AK28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -4271,11 +4083,8 @@
       <c r="AO28">
         <v>0</v>
       </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44355</v>
       </c>
@@ -4290,17 +4099,16 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4318,8 +4126,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4346,8 +4153,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>1</v>
@@ -4365,38 +4171,37 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>100</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>4</v>
       </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>100</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>1</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -4404,11 +4209,8 @@
       <c r="AO29">
         <v>0</v>
       </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44355</v>
       </c>
@@ -4423,17 +4225,16 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4451,85 +4252,82 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>43</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
         <v>3</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>43</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>2</v>
-      </c>
       <c r="AL30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -4537,11 +4335,8 @@
       <c r="AO30">
         <v>0</v>
       </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44355</v>
       </c>
@@ -4556,17 +4351,16 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4584,8 +4378,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4612,7 +4405,6 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X31">
@@ -4631,17 +4423,16 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>11</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4650,16 +4441,16 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -4670,11 +4461,8 @@
       <c r="AO31">
         <v>0</v>
       </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44355</v>
       </c>
@@ -4689,17 +4477,16 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4717,8 +4504,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4745,8 +4531,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -4764,35 +4549,34 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="2"/>
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="AD32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="AF32">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -4803,11 +4587,8 @@
       <c r="AO32">
         <v>0</v>
       </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44355</v>
       </c>
@@ -4822,17 +4603,16 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -4850,8 +4630,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4878,8 +4657,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>1</v>
@@ -4897,38 +4675,37 @@
         <v>3</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="2"/>
-        <v>385</v>
+        <v>7</v>
       </c>
       <c r="AD33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE33">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="AF33">
-        <v>367</v>
+        <v>1</v>
       </c>
       <c r="AG33">
         <v>1</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AL33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AM33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -4936,11 +4713,8 @@
       <c r="AO33">
         <v>0</v>
       </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44355</v>
       </c>
@@ -4955,17 +4729,16 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4983,8 +4756,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>3</v>
@@ -5011,7 +4783,6 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X34">
@@ -5030,17 +4801,16 @@
         <v>4</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="2"/>
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="AF34">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -5049,31 +4819,28 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>1</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44355</v>
       </c>
@@ -5088,17 +4855,16 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5116,8 +4882,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -5144,7 +4909,6 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X35">
@@ -5163,32 +4927,31 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF35">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ35">
         <v>4</v>
       </c>
       <c r="AK35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -5202,11 +4965,8 @@
       <c r="AO35">
         <v>0</v>
       </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44355</v>
       </c>
@@ -5221,17 +4981,16 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5249,8 +5008,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -5277,7 +5035,6 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X36">
@@ -5296,17 +5053,16 @@
         <v>2</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AF36">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -5315,31 +5071,28 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
         <v>3</v>
       </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
       <c r="AM36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44355</v>
       </c>
@@ -5354,17 +5107,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5382,8 +5134,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -5410,7 +5161,6 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X37">
@@ -5429,32 +5179,31 @@
         <v>2</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="2"/>
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AF37">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI37">
         <v>1</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -5468,11 +5217,8 @@
       <c r="AO37">
         <v>0</v>
       </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44357</v>
       </c>
@@ -5487,16 +5233,15 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38">
@@ -5515,8 +5260,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -5543,7 +5287,6 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X38">
@@ -5562,38 +5305,37 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="2"/>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="AF38">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -5601,11 +5343,8 @@
       <c r="AO38">
         <v>0</v>
       </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44357</v>
       </c>
@@ -5620,16 +5359,15 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39">
@@ -5648,7 +5386,6 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39">
@@ -5676,7 +5413,6 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X39">
@@ -5695,23 +5431,22 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="2"/>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AD39">
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF39">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -5734,11 +5469,8 @@
       <c r="AO39">
         <v>0</v>
       </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44357</v>
       </c>
@@ -5753,16 +5485,15 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
         <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40">
@@ -5781,7 +5512,6 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O40">
@@ -5809,7 +5539,6 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X40">
@@ -5828,7 +5557,6 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD40">
@@ -5867,11 +5595,8 @@
       <c r="AO40">
         <v>0</v>
       </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44357</v>
       </c>
@@ -5886,17 +5611,16 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5914,7 +5638,6 @@
         <v>6</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O41">
@@ -5942,7 +5665,6 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X41">
@@ -5961,23 +5683,22 @@
         <v>2</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="2"/>
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="AF41">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -6000,11 +5721,8 @@
       <c r="AO41">
         <v>0</v>
       </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44357</v>
       </c>
@@ -6019,17 +5737,16 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -6047,8 +5764,7 @@
         <v>3</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -6075,7 +5791,6 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X42">
@@ -6094,38 +5809,37 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="2"/>
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AF42">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -6133,11 +5847,8 @@
       <c r="AO42">
         <v>0</v>
       </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44357</v>
       </c>
@@ -6152,17 +5863,16 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6180,8 +5890,7 @@
         <v>4</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -6208,7 +5917,6 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X43">
@@ -6227,29 +5935,28 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="2"/>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="AF43">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -6266,11 +5973,8 @@
       <c r="AO43">
         <v>0</v>
       </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44357</v>
       </c>
@@ -6285,17 +5989,16 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6313,7 +6016,6 @@
         <v>3</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O44">
@@ -6341,7 +6043,6 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X44">
@@ -6360,23 +6061,22 @@
         <v>2</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="2"/>
-        <v>375</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AF44">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="AG44">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="AH44">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -6388,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -6399,11 +6099,8 @@
       <c r="AO44">
         <v>0</v>
       </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44357</v>
       </c>
@@ -6418,17 +6115,16 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6446,8 +6142,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -6474,7 +6169,6 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X45">
@@ -6493,29 +6187,28 @@
         <v>1</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="2"/>
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AF45">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="AG45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45">
         <v>0</v>
@@ -6532,11 +6225,8 @@
       <c r="AO45">
         <v>0</v>
       </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44357</v>
       </c>
@@ -6551,17 +6241,16 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6579,8 +6268,7 @@
         <v>3</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -6607,7 +6295,6 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X46">
@@ -6626,50 +6313,46 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="2"/>
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="AF46">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="AG46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46">
         <v>1</v>
       </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO46">
         <v>0</v>
       </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44357</v>
       </c>
@@ -6684,17 +6367,16 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -6712,8 +6394,7 @@
         <v>3</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -6740,7 +6421,6 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X47">
@@ -6759,23 +6439,22 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AF47">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47">
         <v>0</v>
@@ -6798,11 +6477,8 @@
       <c r="AO47">
         <v>0</v>
       </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44357</v>
       </c>
@@ -6817,17 +6493,16 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -6845,7 +6520,6 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O48">
@@ -6873,7 +6547,6 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X48">
@@ -6892,23 +6565,22 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="2"/>
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="AF48">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6920,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -6931,11 +6603,8 @@
       <c r="AO48">
         <v>0</v>
       </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44357</v>
       </c>
@@ -6950,17 +6619,16 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6978,7 +6646,6 @@
         <v>2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O49">
@@ -7006,7 +6673,6 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X49">
@@ -7025,38 +6691,37 @@
         <v>2</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="2"/>
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="AF49">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -7064,11 +6729,8 @@
       <c r="AO49">
         <v>0</v>
       </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44357</v>
       </c>
@@ -7083,17 +6745,16 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -7111,7 +6772,6 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O50">
@@ -7139,7 +6799,6 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X50">
@@ -7158,23 +6817,22 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF50">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="AG50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -7197,11 +6855,8 @@
       <c r="AO50">
         <v>0</v>
       </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44357</v>
       </c>
@@ -7216,17 +6871,16 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -7244,8 +6898,7 @@
         <v>8</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -7272,7 +6925,6 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X51">
@@ -7291,29 +6943,28 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="2"/>
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AF51">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -7330,11 +6981,8 @@
       <c r="AO51">
         <v>0</v>
       </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44357</v>
       </c>
@@ -7349,17 +6997,16 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -7377,7 +7024,6 @@
         <v>6</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O52">
@@ -7405,7 +7051,6 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X52">
@@ -7424,23 +7069,22 @@
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="2"/>
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="AF52">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AH52">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -7463,11 +7107,8 @@
       <c r="AO52">
         <v>0</v>
       </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44357</v>
       </c>
@@ -7482,16 +7123,15 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I53">
@@ -7510,7 +7150,6 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O53">
@@ -7538,7 +7177,6 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X53">
@@ -7557,7 +7195,6 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD53">
@@ -7596,11 +7233,8 @@
       <c r="AO53">
         <v>0</v>
       </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44357</v>
       </c>
@@ -7615,16 +7249,15 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I54">
@@ -7643,7 +7276,6 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O54">
@@ -7671,7 +7303,6 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X54">
@@ -7690,7 +7321,6 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD54">
@@ -7729,11 +7359,8 @@
       <c r="AO54">
         <v>0</v>
       </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44357</v>
       </c>
@@ -7748,17 +7375,16 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -7776,7 +7402,6 @@
         <v>2</v>
       </c>
       <c r="N55">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O55">
@@ -7804,7 +7429,6 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X55">
@@ -7823,23 +7447,22 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -7860,2087 +7483,6 @@
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <f t="shared" ref="W67:W130" si="5">SUM(X67,Y67,Z67,AA67)</f>
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" ref="AC67:AC130" si="6">SUM(AD67,AE67,AF67,AG67,AH67,AI67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H68">
-        <f t="shared" ref="H68:H131" si="7">SUM(I68,J68,K68,L68,M68)</f>
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <f t="shared" ref="N68:N131" si="8">SUM(O68,P68,Q68,R68,S68,T68,U68,V68)</f>
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H71">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H82">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H83">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H86">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC90">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H92">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC92">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC97">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H100">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H102">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H103">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H104">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H107">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H108">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H109">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H110">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H111">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC111">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H112">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC112">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H113">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC113">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H114">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC114">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H115">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC115">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H116">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC116">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H117">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC117">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H118">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC118">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H120">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC120">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H121">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC121">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H122">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W122">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC122">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W124">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC124">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W125">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H126">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W126">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC126">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H127">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC127">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W128">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H129">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W129">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC129">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H130">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC130">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H131">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W131">
-        <f t="shared" ref="W131:W172" si="9">SUM(X131,Y131,Z131,AA131)</f>
-        <v>0</v>
-      </c>
-      <c r="AC131">
-        <f t="shared" ref="AC131:AC171" si="10">SUM(AD131,AE131,AF131,AG131,AH131,AI131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H132">
-        <f t="shared" ref="H132:H168" si="11">SUM(I132,J132,K132,L132,M132)</f>
-        <v>0</v>
-      </c>
-      <c r="N132">
-        <f t="shared" ref="N132:N170" si="12">SUM(O132,P132,Q132,R132,S132,T132,U132,V132)</f>
-        <v>0</v>
-      </c>
-      <c r="W132">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC132">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H133">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H134">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC134">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H135">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W135">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC135">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H136">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W136">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC136">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W137">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC137">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H138">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W138">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H139">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC139">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H140">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W140">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC140">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H141">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC141">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H142">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC142">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H143">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W143">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC143">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H144">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W144">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC144">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H145">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC145">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H146">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W146">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC146">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H147">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W147">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC147">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H148">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W148">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC148">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H149">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC149">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H150">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC150">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H151">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W151">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC151">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H152">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N152">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W152">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC152">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H153">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N153">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W153">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H154">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N154">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W154">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H155">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC155">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H156">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W156">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC156">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H157">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W157">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC157">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H158">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N158">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC158">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H159">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N159">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC159">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H160">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N160">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W160">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC160">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H161">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N161">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W161">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC161">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H162">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N162">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC162">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H163">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N163">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W163">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC163">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H164">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W164">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC164">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H165">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N165">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC165">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H166">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N166">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W166">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC166">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H167">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N167">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W167">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC167">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H168">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N168">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W168">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC168">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="N169">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC169">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="N170">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W170">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC170">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="W171">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="W172">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
